--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.81406417119619</v>
+        <v>2.218968</v>
       </c>
       <c r="N2">
-        <v>1.81406417119619</v>
+        <v>6.656904</v>
       </c>
       <c r="O2">
-        <v>0.2130672533702165</v>
+        <v>0.210471837903932</v>
       </c>
       <c r="P2">
-        <v>0.2130672533702165</v>
+        <v>0.2170284397425393</v>
       </c>
       <c r="Q2">
-        <v>30.65268282728635</v>
+        <v>54.85685425581599</v>
       </c>
       <c r="R2">
-        <v>30.65268282728635</v>
+        <v>493.7116883023439</v>
       </c>
       <c r="S2">
-        <v>0.00229116819885946</v>
+        <v>0.002822106167124948</v>
       </c>
       <c r="T2">
-        <v>0.00229116819885946</v>
+        <v>0.002920830692574901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.02963645817491</v>
+        <v>2.292919</v>
       </c>
       <c r="N3">
-        <v>2.02963645817491</v>
+        <v>6.878757</v>
       </c>
       <c r="O3">
-        <v>0.2383868621352168</v>
+        <v>0.2174861810061461</v>
       </c>
       <c r="P3">
-        <v>0.2383868621352168</v>
+        <v>0.2242612930993252</v>
       </c>
       <c r="Q3">
-        <v>34.29526010984976</v>
+        <v>56.68505512625299</v>
       </c>
       <c r="R3">
-        <v>34.29526010984976</v>
+        <v>510.1654961362769</v>
       </c>
       <c r="S3">
-        <v>0.00256343660938397</v>
+        <v>0.002916157804266654</v>
       </c>
       <c r="T3">
-        <v>0.00256343660938397</v>
+        <v>0.003018172497660241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.16718243842075</v>
+        <v>1.197805</v>
       </c>
       <c r="N4">
-        <v>1.16718243842075</v>
+        <v>3.593415</v>
       </c>
       <c r="O4">
-        <v>0.1370890623854153</v>
+        <v>0.113613274188956</v>
       </c>
       <c r="P4">
-        <v>0.1370890623854153</v>
+        <v>0.1171525458076963</v>
       </c>
       <c r="Q4">
-        <v>19.72216510009041</v>
+        <v>29.61188007753499</v>
       </c>
       <c r="R4">
-        <v>19.72216510009041</v>
+        <v>266.506920697815</v>
       </c>
       <c r="S4">
-        <v>0.001474154733684804</v>
+        <v>0.001523380633480564</v>
       </c>
       <c r="T4">
-        <v>0.001474154733684804</v>
+        <v>0.001576672402540135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.54789152544395</v>
+        <v>3.877612666666666</v>
       </c>
       <c r="N5">
-        <v>2.54789152544395</v>
+        <v>11.632838</v>
       </c>
       <c r="O5">
-        <v>0.2992574672006365</v>
+        <v>0.3677963200158363</v>
       </c>
       <c r="P5">
-        <v>0.2992574672006365</v>
+        <v>0.3792538815217587</v>
       </c>
       <c r="Q5">
-        <v>43.05234183433843</v>
+        <v>95.86151441383531</v>
       </c>
       <c r="R5">
-        <v>43.05234183433843</v>
+        <v>862.7536297245179</v>
       </c>
       <c r="S5">
-        <v>0.003217994230816745</v>
+        <v>0.00493158739572712</v>
       </c>
       <c r="T5">
-        <v>0.003217994230816745</v>
+        <v>0.005104106995106377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.955270350330209</v>
+        <v>0.9555214999999999</v>
       </c>
       <c r="N6">
-        <v>0.955270350330209</v>
+        <v>1.911043</v>
       </c>
       <c r="O6">
-        <v>0.1121993549085148</v>
+        <v>0.09063238688512948</v>
       </c>
       <c r="P6">
-        <v>0.1121993549085148</v>
+        <v>0.06230383982868035</v>
       </c>
       <c r="Q6">
-        <v>16.14143508698173</v>
+        <v>23.62219899692049</v>
       </c>
       <c r="R6">
-        <v>16.14143508698173</v>
+        <v>141.733193981523</v>
       </c>
       <c r="S6">
-        <v>0.001206509164748398</v>
+        <v>0.001215242003476608</v>
       </c>
       <c r="T6">
-        <v>0.001206509164748398</v>
+        <v>0.000838502860974173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.81406417119619</v>
+        <v>2.218968</v>
       </c>
       <c r="N7">
-        <v>1.81406417119619</v>
+        <v>6.656904</v>
       </c>
       <c r="O7">
-        <v>0.2130672533702165</v>
+        <v>0.210471837903932</v>
       </c>
       <c r="P7">
-        <v>0.2130672533702165</v>
+        <v>0.2170284397425393</v>
       </c>
       <c r="Q7">
-        <v>2430.34177877868</v>
+        <v>3235.878842202791</v>
       </c>
       <c r="R7">
-        <v>2430.34177877868</v>
+        <v>29122.90957982513</v>
       </c>
       <c r="S7">
-        <v>0.1816585460813383</v>
+        <v>0.1664695097911388</v>
       </c>
       <c r="T7">
-        <v>0.1816585460813383</v>
+        <v>0.1722930410060397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.02963645817491</v>
+        <v>2.292919</v>
       </c>
       <c r="N8">
-        <v>2.02963645817491</v>
+        <v>6.878757</v>
       </c>
       <c r="O8">
-        <v>0.2383868621352168</v>
+        <v>0.2174861810061461</v>
       </c>
       <c r="P8">
-        <v>0.2383868621352168</v>
+        <v>0.2242612930993252</v>
       </c>
       <c r="Q8">
-        <v>2719.148726024534</v>
+        <v>3343.720179373827</v>
       </c>
       <c r="R8">
-        <v>2719.148726024534</v>
+        <v>30093.48161436445</v>
       </c>
       <c r="S8">
-        <v>0.2032457362424013</v>
+        <v>0.1720173981421941</v>
       </c>
       <c r="T8">
-        <v>0.2032457362424013</v>
+        <v>0.1780350087475473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.16718243842075</v>
+        <v>1.197805</v>
       </c>
       <c r="N9">
-        <v>1.16718243842075</v>
+        <v>3.593415</v>
       </c>
       <c r="O9">
-        <v>0.1370890623854153</v>
+        <v>0.113613274188956</v>
       </c>
       <c r="P9">
-        <v>0.1370890623854153</v>
+        <v>0.1171525458076963</v>
       </c>
       <c r="Q9">
-        <v>1563.70005460184</v>
+        <v>1746.736256036462</v>
       </c>
       <c r="R9">
-        <v>1563.70005460184</v>
+        <v>15720.62630432816</v>
       </c>
       <c r="S9">
-        <v>0.1168804654993949</v>
+        <v>0.08986069703365486</v>
       </c>
       <c r="T9">
-        <v>0.1168804654993949</v>
+        <v>0.09300425512321016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.54789152544395</v>
+        <v>3.877612666666666</v>
       </c>
       <c r="N10">
-        <v>2.54789152544395</v>
+        <v>11.632838</v>
       </c>
       <c r="O10">
-        <v>0.2992574672006365</v>
+        <v>0.3677963200158363</v>
       </c>
       <c r="P10">
-        <v>0.2992574672006365</v>
+        <v>0.3792538815217587</v>
       </c>
       <c r="Q10">
-        <v>3413.466469600918</v>
+        <v>5654.648821580217</v>
       </c>
       <c r="R10">
-        <v>3413.466469600918</v>
+        <v>50891.83939422196</v>
       </c>
       <c r="S10">
-        <v>0.2551432730077632</v>
+        <v>0.2909029241430749</v>
       </c>
       <c r="T10">
-        <v>0.2551432730077632</v>
+        <v>0.3010794559378679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.955270350330209</v>
+        <v>0.9555214999999999</v>
       </c>
       <c r="N11">
-        <v>0.955270350330209</v>
+        <v>1.911043</v>
       </c>
       <c r="O11">
-        <v>0.1121993549085148</v>
+        <v>0.09063238688512948</v>
       </c>
       <c r="P11">
-        <v>0.1121993549085148</v>
+        <v>0.06230383982868035</v>
       </c>
       <c r="Q11">
-        <v>1279.79675653104</v>
+        <v>1393.418834845692</v>
       </c>
       <c r="R11">
-        <v>1279.79675653104</v>
+        <v>8360.51300907415</v>
       </c>
       <c r="S11">
-        <v>0.09565980394242019</v>
+        <v>0.071684312572283</v>
       </c>
       <c r="T11">
-        <v>0.09565980394242019</v>
+        <v>0.04946134268472328</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.81406417119619</v>
+        <v>2.218968</v>
       </c>
       <c r="N12">
-        <v>1.81406417119619</v>
+        <v>6.656904</v>
       </c>
       <c r="O12">
-        <v>0.2130672533702165</v>
+        <v>0.210471837903932</v>
       </c>
       <c r="P12">
-        <v>0.2130672533702165</v>
+        <v>0.2170284397425393</v>
       </c>
       <c r="Q12">
-        <v>99.50027577210632</v>
+        <v>133.35951081672</v>
       </c>
       <c r="R12">
-        <v>99.50027577210632</v>
+        <v>1200.23559735048</v>
       </c>
       <c r="S12">
-        <v>0.007437256598755553</v>
+        <v>0.006860668607892881</v>
       </c>
       <c r="T12">
-        <v>0.007437256598755553</v>
+        <v>0.007100672425068065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.02963645817491</v>
+        <v>2.292919</v>
       </c>
       <c r="N13">
-        <v>2.02963645817491</v>
+        <v>6.878757</v>
       </c>
       <c r="O13">
-        <v>0.2383868621352168</v>
+        <v>0.2174861810061461</v>
       </c>
       <c r="P13">
-        <v>0.2383868621352168</v>
+        <v>0.2242612930993252</v>
       </c>
       <c r="Q13">
-        <v>111.324279764789</v>
+        <v>137.80395038701</v>
       </c>
       <c r="R13">
-        <v>111.324279764789</v>
+        <v>1240.23555348309</v>
       </c>
       <c r="S13">
-        <v>0.008321054669021237</v>
+        <v>0.007089312420792521</v>
       </c>
       <c r="T13">
-        <v>0.008321054669021237</v>
+        <v>0.007337314786069309</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.16718243842075</v>
+        <v>1.197805</v>
       </c>
       <c r="N14">
-        <v>1.16718243842075</v>
+        <v>3.593415</v>
       </c>
       <c r="O14">
-        <v>0.1370890623854153</v>
+        <v>0.113613274188956</v>
       </c>
       <c r="P14">
-        <v>0.1370890623854153</v>
+        <v>0.1171525458076963</v>
       </c>
       <c r="Q14">
-        <v>64.01922067764835</v>
+        <v>71.98782896095001</v>
       </c>
       <c r="R14">
-        <v>64.01922067764835</v>
+        <v>647.8904606485501</v>
       </c>
       <c r="S14">
-        <v>0.004785186450362629</v>
+        <v>0.003703407693070443</v>
       </c>
       <c r="T14">
-        <v>0.004785186450362629</v>
+        <v>0.003832962410502834</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.54789152544395</v>
+        <v>3.877612666666666</v>
       </c>
       <c r="N15">
-        <v>2.54789152544395</v>
+        <v>11.632838</v>
       </c>
       <c r="O15">
-        <v>0.2992574672006365</v>
+        <v>0.3677963200158363</v>
       </c>
       <c r="P15">
-        <v>0.2992574672006365</v>
+        <v>0.3792538815217587</v>
       </c>
       <c r="Q15">
-        <v>139.7502433730984</v>
+        <v>233.0437069680067</v>
       </c>
       <c r="R15">
-        <v>139.7502433730984</v>
+        <v>2097.39336271206</v>
       </c>
       <c r="S15">
-        <v>0.01044578431204351</v>
+        <v>0.01198891353808068</v>
       </c>
       <c r="T15">
-        <v>0.01044578431204351</v>
+        <v>0.01240831654052453</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.955270350330209</v>
+        <v>0.9555214999999999</v>
       </c>
       <c r="N16">
-        <v>0.955270350330209</v>
+        <v>1.911043</v>
       </c>
       <c r="O16">
-        <v>0.1121993549085148</v>
+        <v>0.09063238688512948</v>
       </c>
       <c r="P16">
-        <v>0.1121993549085148</v>
+        <v>0.06230383982868035</v>
       </c>
       <c r="Q16">
-        <v>52.3959762857214</v>
+        <v>57.426641490485</v>
       </c>
       <c r="R16">
-        <v>52.3959762857214</v>
+        <v>344.55984894291</v>
       </c>
       <c r="S16">
-        <v>0.003916394375345677</v>
+        <v>0.002954308651236393</v>
       </c>
       <c r="T16">
-        <v>0.003916394375345677</v>
+        <v>0.002038438639526625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.81406417119619</v>
+        <v>2.218968</v>
       </c>
       <c r="N17">
-        <v>1.81406417119619</v>
+        <v>6.656904</v>
       </c>
       <c r="O17">
-        <v>0.2130672533702165</v>
+        <v>0.210471837903932</v>
       </c>
       <c r="P17">
-        <v>0.2130672533702165</v>
+        <v>0.2170284397425393</v>
       </c>
       <c r="Q17">
-        <v>252.9181066007949</v>
+        <v>621.685848103848</v>
       </c>
       <c r="R17">
-        <v>252.9181066007949</v>
+        <v>5595.172632934632</v>
       </c>
       <c r="S17">
-        <v>0.01890463963707769</v>
+        <v>0.03198257519044966</v>
       </c>
       <c r="T17">
-        <v>0.01890463963707769</v>
+        <v>0.03310140785348915</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.02963645817491</v>
+        <v>2.292919</v>
       </c>
       <c r="N18">
-        <v>2.02963645817491</v>
+        <v>6.878757</v>
       </c>
       <c r="O18">
-        <v>0.2383868621352168</v>
+        <v>0.2174861810061461</v>
       </c>
       <c r="P18">
-        <v>0.2383868621352168</v>
+        <v>0.2242612930993252</v>
       </c>
       <c r="Q18">
-        <v>282.973346941223</v>
+        <v>642.404619241209</v>
       </c>
       <c r="R18">
-        <v>282.973346941223</v>
+        <v>5781.641573170881</v>
       </c>
       <c r="S18">
-        <v>0.02115115134585928</v>
+        <v>0.03304845059645324</v>
       </c>
       <c r="T18">
-        <v>0.02115115134585928</v>
+        <v>0.03420457032008325</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.16718243842075</v>
+        <v>1.197805</v>
       </c>
       <c r="N19">
-        <v>1.16718243842075</v>
+        <v>3.593415</v>
       </c>
       <c r="O19">
-        <v>0.1370890623854153</v>
+        <v>0.113613274188956</v>
       </c>
       <c r="P19">
-        <v>0.1370890623854153</v>
+        <v>0.1171525458076963</v>
       </c>
       <c r="Q19">
-        <v>162.7293990313583</v>
+        <v>335.587722440355</v>
       </c>
       <c r="R19">
-        <v>162.7293990313583</v>
+        <v>3020.289501963196</v>
       </c>
       <c r="S19">
-        <v>0.01216338635612884</v>
+        <v>0.01726428162821481</v>
       </c>
       <c r="T19">
-        <v>0.01216338635612884</v>
+        <v>0.01786823056211201</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.54789152544395</v>
+        <v>3.877612666666666</v>
       </c>
       <c r="N20">
-        <v>2.54789152544395</v>
+        <v>11.632838</v>
       </c>
       <c r="O20">
-        <v>0.2992574672006365</v>
+        <v>0.3677963200158363</v>
       </c>
       <c r="P20">
-        <v>0.2992574672006365</v>
+        <v>0.3792538815217587</v>
       </c>
       <c r="Q20">
-        <v>355.228834057493</v>
+        <v>1086.386518099806</v>
       </c>
       <c r="R20">
-        <v>355.228834057493</v>
+        <v>9777.478662898255</v>
       </c>
       <c r="S20">
-        <v>0.02655196651126231</v>
+        <v>0.05588906134342933</v>
       </c>
       <c r="T20">
-        <v>0.02655196651126231</v>
+        <v>0.05784420432254498</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.955270350330209</v>
+        <v>0.9555214999999999</v>
       </c>
       <c r="N21">
-        <v>0.955270350330209</v>
+        <v>1.911043</v>
       </c>
       <c r="O21">
-        <v>0.1121993549085148</v>
+        <v>0.09063238688512948</v>
       </c>
       <c r="P21">
-        <v>0.1121993549085148</v>
+        <v>0.06230383982868035</v>
       </c>
       <c r="Q21">
-        <v>133.1844662022516</v>
+        <v>267.7074180920865</v>
       </c>
       <c r="R21">
-        <v>133.1844662022516</v>
+        <v>1606.244508552519</v>
       </c>
       <c r="S21">
-        <v>0.009955018138674483</v>
+        <v>0.01377218518691628</v>
       </c>
       <c r="T21">
-        <v>0.009955018138674483</v>
+        <v>0.009502647742637637</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.81406417119619</v>
+        <v>2.218968</v>
       </c>
       <c r="N22">
-        <v>1.81406417119619</v>
+        <v>6.656904</v>
       </c>
       <c r="O22">
-        <v>0.2130672533702165</v>
+        <v>0.210471837903932</v>
       </c>
       <c r="P22">
-        <v>0.2130672533702165</v>
+        <v>0.2170284397425393</v>
       </c>
       <c r="Q22">
-        <v>37.1342881301882</v>
+        <v>45.426806092656</v>
       </c>
       <c r="R22">
-        <v>37.1342881301882</v>
+        <v>272.560836555936</v>
       </c>
       <c r="S22">
-        <v>0.002775642854185486</v>
+        <v>0.002336978147325716</v>
       </c>
       <c r="T22">
-        <v>0.002775642854185486</v>
+        <v>0.001612487765367514</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.02963645817491</v>
+        <v>2.292919</v>
       </c>
       <c r="N23">
-        <v>2.02963645817491</v>
+        <v>6.878757</v>
       </c>
       <c r="O23">
-        <v>0.2383868621352168</v>
+        <v>0.2174861810061461</v>
       </c>
       <c r="P23">
-        <v>0.2383868621352168</v>
+        <v>0.2242612930993252</v>
       </c>
       <c r="Q23">
-        <v>41.54709973005175</v>
+        <v>46.940734070598</v>
       </c>
       <c r="R23">
-        <v>41.54709973005175</v>
+        <v>281.644404423588</v>
       </c>
       <c r="S23">
-        <v>0.003105483268550958</v>
+        <v>0.002414862042439519</v>
       </c>
       <c r="T23">
-        <v>0.003105483268550958</v>
+        <v>0.001666226747965141</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.16718243842075</v>
+        <v>1.197805</v>
       </c>
       <c r="N24">
-        <v>1.16718243842075</v>
+        <v>3.593415</v>
       </c>
       <c r="O24">
-        <v>0.1370890623854153</v>
+        <v>0.113613274188956</v>
       </c>
       <c r="P24">
-        <v>0.1370890623854153</v>
+        <v>0.1171525458076963</v>
       </c>
       <c r="Q24">
-        <v>23.89247836818905</v>
+        <v>24.52151426781</v>
       </c>
       <c r="R24">
-        <v>23.89247836818905</v>
+        <v>147.12908560686</v>
       </c>
       <c r="S24">
-        <v>0.001785869345844093</v>
+        <v>0.00126150720053533</v>
       </c>
       <c r="T24">
-        <v>0.001785869345844093</v>
+        <v>0.0008704253093312002</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.54789152544395</v>
+        <v>3.877612666666666</v>
       </c>
       <c r="N25">
-        <v>2.54789152544395</v>
+        <v>11.632838</v>
       </c>
       <c r="O25">
-        <v>0.2992574672006365</v>
+        <v>0.3677963200158363</v>
       </c>
       <c r="P25">
-        <v>0.2992574672006365</v>
+        <v>0.3792538815217587</v>
       </c>
       <c r="Q25">
-        <v>52.1558936737679</v>
+        <v>79.382649371732</v>
       </c>
       <c r="R25">
-        <v>52.1558936737679</v>
+        <v>476.295896230392</v>
       </c>
       <c r="S25">
-        <v>0.003898449138750683</v>
+        <v>0.004083833595524314</v>
       </c>
       <c r="T25">
-        <v>0.003898449138750683</v>
+        <v>0.002817797725714881</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.955270350330209</v>
+        <v>0.9555214999999999</v>
       </c>
       <c r="N26">
-        <v>0.955270350330209</v>
+        <v>1.911043</v>
       </c>
       <c r="O26">
-        <v>0.1121993549085148</v>
+        <v>0.09063238688512948</v>
       </c>
       <c r="P26">
-        <v>0.1121993549085148</v>
+        <v>0.06230383982868035</v>
       </c>
       <c r="Q26">
-        <v>19.55459183563324</v>
+        <v>19.561476279903</v>
       </c>
       <c r="R26">
-        <v>19.55459183563324</v>
+        <v>78.245905119612</v>
       </c>
       <c r="S26">
-        <v>0.001461629287326106</v>
+        <v>0.001006338471217201</v>
       </c>
       <c r="T26">
-        <v>0.001461629287326106</v>
+        <v>0.0004629079008186432</v>
       </c>
     </row>
   </sheetData>
